--- a/resource/osaka_kita/shop_list.xlsx
+++ b/resource/osaka_kita/shop_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka_kita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECBF640-FA7B-5B46-9196-301F01336124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DA22A-A241-5C4E-B070-3F931F438B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11940" yWindow="2640" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="218">
   <si>
     <t>ページ</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t>19:00～翌2:00</t>
+  </si>
+  <si>
+    <t>NEW/復活</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
@@ -1647,20 +1653,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1674,13 +1680,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1693,14 +1702,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1714,10 +1723,13 @@
         <v>90</v>
       </c>
       <c r="E3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1731,10 +1743,13 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1748,10 +1763,13 @@
         <v>92</v>
       </c>
       <c r="E5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1765,10 +1783,13 @@
         <v>95</v>
       </c>
       <c r="E6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1782,10 +1803,13 @@
         <v>97</v>
       </c>
       <c r="E7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1799,10 +1823,13 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21">
+    <row r="9" spans="1:7" ht="21">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1815,11 +1842,14 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1833,10 +1863,13 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1850,10 +1883,13 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1867,10 +1903,13 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1884,10 +1923,13 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1900,11 +1942,11 @@
       <c r="D14" t="s">
         <v>106</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1917,11 +1959,11 @@
       <c r="D15" t="s">
         <v>108</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1935,10 +1977,13 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1952,10 +1997,13 @@
         <v>112</v>
       </c>
       <c r="E17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1969,10 +2017,13 @@
         <v>114</v>
       </c>
       <c r="E18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1986,10 +2037,13 @@
         <v>116</v>
       </c>
       <c r="E19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2003,10 +2057,13 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2020,10 +2077,13 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2037,10 +2097,13 @@
         <v>27</v>
       </c>
       <c r="E22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2053,11 +2116,11 @@
       <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2070,11 +2133,11 @@
       <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2087,11 +2150,11 @@
       <c r="D25" t="s">
         <v>124</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2104,11 +2167,11 @@
       <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2121,11 +2184,11 @@
       <c r="D27" t="s">
         <v>127</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2138,11 +2201,11 @@
       <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2155,11 +2218,11 @@
       <c r="D29" t="s">
         <v>131</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2172,11 +2235,11 @@
       <c r="D30" t="s">
         <v>133</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2190,10 +2253,13 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2206,11 +2272,11 @@
       <c r="D32" t="s">
         <v>135</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2223,11 +2289,11 @@
       <c r="D33" t="s">
         <v>137</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2241,10 +2307,13 @@
         <v>139</v>
       </c>
       <c r="E34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2257,11 +2326,11 @@
       <c r="D35" t="s">
         <v>45</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2274,11 +2343,11 @@
       <c r="D36" t="s">
         <v>40</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2291,11 +2360,11 @@
       <c r="D37" t="s">
         <v>142</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2309,10 +2378,13 @@
         <v>144</v>
       </c>
       <c r="E38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2325,11 +2397,11 @@
       <c r="D39" t="s">
         <v>146</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2342,11 +2414,11 @@
       <c r="D40" t="s">
         <v>44</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2359,11 +2431,11 @@
       <c r="D41" t="s">
         <v>147</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2376,11 +2448,11 @@
       <c r="D42" t="s">
         <v>41</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2393,11 +2465,11 @@
       <c r="D43" t="s">
         <v>49</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -2410,11 +2482,11 @@
       <c r="D44" t="s">
         <v>149</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2427,11 +2499,11 @@
       <c r="D45" t="s">
         <v>50</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2445,10 +2517,13 @@
         <v>152</v>
       </c>
       <c r="E46" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2461,11 +2536,11 @@
       <c r="D47" t="s">
         <v>47</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2479,10 +2554,13 @@
         <v>154</v>
       </c>
       <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="21">
+    <row r="49" spans="1:6" ht="21">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2495,11 +2573,14 @@
       <c r="D49" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2512,11 +2593,11 @@
       <c r="D50" t="s">
         <v>159</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2530,10 +2611,13 @@
         <v>162</v>
       </c>
       <c r="E51" t="s">
+        <v>217</v>
+      </c>
+      <c r="F51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2547,10 +2631,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2563,11 +2650,11 @@
       <c r="D53" t="s">
         <v>58</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2580,11 +2667,11 @@
       <c r="D54" t="s">
         <v>55</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2598,10 +2685,13 @@
         <v>166</v>
       </c>
       <c r="E55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -2615,10 +2705,13 @@
         <v>168</v>
       </c>
       <c r="E56" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2631,11 +2724,11 @@
       <c r="D57" t="s">
         <v>62</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2648,11 +2741,11 @@
       <c r="D58" t="s">
         <v>170</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -2666,10 +2759,13 @@
         <v>172</v>
       </c>
       <c r="E59" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -2683,10 +2779,13 @@
         <v>175</v>
       </c>
       <c r="E60" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2699,11 +2798,11 @@
       <c r="D61" t="s">
         <v>177</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -2716,11 +2815,11 @@
       <c r="D62" t="s">
         <v>180</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -2733,11 +2832,11 @@
       <c r="D63" t="s">
         <v>182</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2750,11 +2849,11 @@
       <c r="D64" t="s">
         <v>184</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -2767,11 +2866,11 @@
       <c r="D65" t="s">
         <v>186</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -2784,11 +2883,11 @@
       <c r="D66" t="s">
         <v>65</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -2801,11 +2900,11 @@
       <c r="D67" t="s">
         <v>63</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -2819,10 +2918,13 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -2835,11 +2937,11 @@
       <c r="D69" t="s">
         <v>188</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -2853,10 +2955,13 @@
         <v>191</v>
       </c>
       <c r="E70" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -2870,10 +2975,13 @@
         <v>194</v>
       </c>
       <c r="E71" t="s">
+        <v>217</v>
+      </c>
+      <c r="F71" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>189</v>
       </c>
@@ -2887,10 +2995,13 @@
         <v>197</v>
       </c>
       <c r="E72" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -2904,10 +3015,13 @@
         <v>199</v>
       </c>
       <c r="E73" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -2921,10 +3035,13 @@
         <v>201</v>
       </c>
       <c r="E74" t="s">
+        <v>217</v>
+      </c>
+      <c r="F74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -2938,10 +3055,13 @@
         <v>69</v>
       </c>
       <c r="E75" t="s">
+        <v>217</v>
+      </c>
+      <c r="F75" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>202</v>
       </c>
@@ -2955,10 +3075,13 @@
         <v>204</v>
       </c>
       <c r="E76" t="s">
+        <v>217</v>
+      </c>
+      <c r="F76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -2971,11 +3094,11 @@
       <c r="D77" t="s">
         <v>73</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -2988,11 +3111,11 @@
       <c r="D78" t="s">
         <v>206</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -3006,10 +3129,13 @@
         <v>76</v>
       </c>
       <c r="E79" t="s">
+        <v>217</v>
+      </c>
+      <c r="F79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -3023,10 +3149,13 @@
         <v>75</v>
       </c>
       <c r="E80" t="s">
+        <v>217</v>
+      </c>
+      <c r="F80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -3039,11 +3168,11 @@
       <c r="D81" t="s">
         <v>71</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -3056,11 +3185,11 @@
       <c r="D82" t="s">
         <v>208</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -3073,11 +3202,11 @@
       <c r="D83" t="s">
         <v>210</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -3091,10 +3220,13 @@
         <v>79</v>
       </c>
       <c r="E84" t="s">
+        <v>217</v>
+      </c>
+      <c r="F84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -3107,11 +3239,11 @@
       <c r="D85" t="s">
         <v>72</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>202</v>
       </c>
@@ -3125,10 +3257,13 @@
         <v>78</v>
       </c>
       <c r="E86" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -3142,10 +3277,13 @@
         <v>212</v>
       </c>
       <c r="E87" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -3159,6 +3297,9 @@
         <v>214</v>
       </c>
       <c r="E88" t="s">
+        <v>217</v>
+      </c>
+      <c r="F88" t="s">
         <v>215</v>
       </c>
     </row>

--- a/resource/osaka_kita/shop_list.xlsx
+++ b/resource/osaka_kita/shop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka_kita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DA22A-A241-5C4E-B070-3F931F438B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BC6178-18EE-364B-8FEE-98261683399A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11940" yWindow="2640" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="222">
   <si>
     <t>ページ</t>
   </si>
@@ -699,6 +699,19 @@
   </si>
   <si>
     <t>NEW</t>
+  </si>
+  <si>
+    <t>期間延長日</t>
+  </si>
+  <si>
+    <t>閉店フラグ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1653,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1666,7 +1679,7 @@
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1688,8 +1701,17 @@
       <c r="G1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1708,8 +1730,17 @@
       <c r="G2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1728,8 +1759,17 @@
       <c r="F3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1748,8 +1788,17 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1768,8 +1817,17 @@
       <c r="F5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1788,8 +1846,17 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1808,8 +1875,17 @@
       <c r="F7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1828,8 +1904,17 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="21">
+      <c r="H8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1848,8 +1933,17 @@
       <c r="F9" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1868,8 +1962,17 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1888,8 +1991,17 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1908,8 +2020,17 @@
       <c r="F12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1928,8 +2049,17 @@
       <c r="F13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1945,8 +2075,17 @@
       <c r="F14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1962,8 +2101,17 @@
       <c r="F15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1982,8 +2130,17 @@
       <c r="F16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" t="s">
+        <v>221</v>
+      </c>
+      <c r="I16" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2002,8 +2159,17 @@
       <c r="F17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2022,8 +2188,17 @@
       <c r="F18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2042,8 +2217,17 @@
       <c r="F19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2062,8 +2246,17 @@
       <c r="F20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>221</v>
+      </c>
+      <c r="I20" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2082,8 +2275,17 @@
       <c r="F21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2102,8 +2304,17 @@
       <c r="F22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" t="s">
+        <v>221</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2119,8 +2330,17 @@
       <c r="F23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" t="s">
+        <v>221</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2136,8 +2356,17 @@
       <c r="F24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2153,8 +2382,17 @@
       <c r="F25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2170,8 +2408,17 @@
       <c r="F26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2187,8 +2434,17 @@
       <c r="F27" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" t="s">
+        <v>221</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2204,8 +2460,17 @@
       <c r="F28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2221,8 +2486,17 @@
       <c r="F29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" t="s">
+        <v>221</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2238,8 +2512,17 @@
       <c r="F30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30" t="s">
+        <v>221</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2258,8 +2541,17 @@
       <c r="F31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I31" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2275,8 +2567,17 @@
       <c r="F32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2292,8 +2593,17 @@
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33" t="s">
+        <v>221</v>
+      </c>
+      <c r="I33" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2312,8 +2622,17 @@
       <c r="F34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34" t="s">
+        <v>221</v>
+      </c>
+      <c r="I34" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2329,8 +2648,17 @@
       <c r="F35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2346,8 +2674,17 @@
       <c r="F36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2363,8 +2700,17 @@
       <c r="F37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2383,8 +2729,17 @@
       <c r="F38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38" t="s">
+        <v>221</v>
+      </c>
+      <c r="I38" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2400,8 +2755,17 @@
       <c r="F39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39" t="s">
+        <v>221</v>
+      </c>
+      <c r="I39" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2417,8 +2781,17 @@
       <c r="F40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" t="s">
+        <v>221</v>
+      </c>
+      <c r="I40" t="s">
+        <v>221</v>
+      </c>
+      <c r="J40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2434,8 +2807,17 @@
       <c r="F41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2451,8 +2833,17 @@
       <c r="F42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" t="s">
+        <v>221</v>
+      </c>
+      <c r="I42" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2468,8 +2859,17 @@
       <c r="F43" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" t="s">
+        <v>221</v>
+      </c>
+      <c r="I43" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -2485,8 +2885,17 @@
       <c r="F44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2502,8 +2911,17 @@
       <c r="F45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" t="s">
+        <v>221</v>
+      </c>
+      <c r="I45" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2522,8 +2940,17 @@
       <c r="F46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" t="s">
+        <v>221</v>
+      </c>
+      <c r="I46" t="s">
+        <v>221</v>
+      </c>
+      <c r="J46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2539,8 +2966,17 @@
       <c r="F47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" t="s">
+        <v>221</v>
+      </c>
+      <c r="I47" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2559,8 +2995,17 @@
       <c r="F48" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="21">
+      <c r="H48" t="s">
+        <v>221</v>
+      </c>
+      <c r="I48" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="21">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2579,8 +3024,17 @@
       <c r="F49" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49" t="s">
+        <v>221</v>
+      </c>
+      <c r="I49" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2596,8 +3050,17 @@
       <c r="F50" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50" t="s">
+        <v>221</v>
+      </c>
+      <c r="I50" t="s">
+        <v>221</v>
+      </c>
+      <c r="J50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2616,8 +3079,17 @@
       <c r="F51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I51" t="s">
+        <v>221</v>
+      </c>
+      <c r="J51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2636,8 +3108,17 @@
       <c r="F52" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52" t="s">
+        <v>221</v>
+      </c>
+      <c r="I52" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2653,8 +3134,17 @@
       <c r="F53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="H53" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2670,8 +3160,17 @@
       <c r="F54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54" t="s">
+        <v>221</v>
+      </c>
+      <c r="I54" t="s">
+        <v>221</v>
+      </c>
+      <c r="J54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2690,8 +3189,17 @@
       <c r="F55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" t="s">
+        <v>221</v>
+      </c>
+      <c r="I55" t="s">
+        <v>221</v>
+      </c>
+      <c r="J55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -2710,8 +3218,17 @@
       <c r="F56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56" t="s">
+        <v>221</v>
+      </c>
+      <c r="I56" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2727,8 +3244,17 @@
       <c r="F57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57" t="s">
+        <v>221</v>
+      </c>
+      <c r="I57" t="s">
+        <v>221</v>
+      </c>
+      <c r="J57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2744,8 +3270,17 @@
       <c r="F58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58" t="s">
+        <v>221</v>
+      </c>
+      <c r="I58" t="s">
+        <v>221</v>
+      </c>
+      <c r="J58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -2764,8 +3299,17 @@
       <c r="F59" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="H59" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" t="s">
+        <v>221</v>
+      </c>
+      <c r="J59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -2784,8 +3328,17 @@
       <c r="F60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60" t="s">
+        <v>221</v>
+      </c>
+      <c r="I60" t="s">
+        <v>221</v>
+      </c>
+      <c r="J60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2801,8 +3354,17 @@
       <c r="F61" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61" t="s">
+        <v>221</v>
+      </c>
+      <c r="I61" t="s">
+        <v>221</v>
+      </c>
+      <c r="J61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -2818,8 +3380,17 @@
       <c r="F62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62" t="s">
+        <v>221</v>
+      </c>
+      <c r="I62" t="s">
+        <v>221</v>
+      </c>
+      <c r="J62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -2835,8 +3406,17 @@
       <c r="F63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="H63" t="s">
+        <v>221</v>
+      </c>
+      <c r="I63" t="s">
+        <v>221</v>
+      </c>
+      <c r="J63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2852,8 +3432,17 @@
       <c r="F64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" t="s">
+        <v>221</v>
+      </c>
+      <c r="I64" t="s">
+        <v>221</v>
+      </c>
+      <c r="J64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -2869,8 +3458,17 @@
       <c r="F65" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" t="s">
+        <v>221</v>
+      </c>
+      <c r="I65" t="s">
+        <v>221</v>
+      </c>
+      <c r="J65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -2886,8 +3484,17 @@
       <c r="F66" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" t="s">
+        <v>221</v>
+      </c>
+      <c r="I66" t="s">
+        <v>221</v>
+      </c>
+      <c r="J66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -2903,8 +3510,17 @@
       <c r="F67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" t="s">
+        <v>221</v>
+      </c>
+      <c r="I67" t="s">
+        <v>221</v>
+      </c>
+      <c r="J67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -2923,8 +3539,17 @@
       <c r="F68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" t="s">
+        <v>221</v>
+      </c>
+      <c r="I68" t="s">
+        <v>221</v>
+      </c>
+      <c r="J68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -2940,8 +3565,17 @@
       <c r="F69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69" t="s">
+        <v>221</v>
+      </c>
+      <c r="I69" t="s">
+        <v>221</v>
+      </c>
+      <c r="J69" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -2960,8 +3594,17 @@
       <c r="F70" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70" t="s">
+        <v>221</v>
+      </c>
+      <c r="I70" t="s">
+        <v>221</v>
+      </c>
+      <c r="J70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -2980,8 +3623,17 @@
       <c r="F71" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71" t="s">
+        <v>221</v>
+      </c>
+      <c r="I71" t="s">
+        <v>221</v>
+      </c>
+      <c r="J71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>189</v>
       </c>
@@ -3000,8 +3652,17 @@
       <c r="F72" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="H72" t="s">
+        <v>221</v>
+      </c>
+      <c r="I72" t="s">
+        <v>221</v>
+      </c>
+      <c r="J72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -3020,8 +3681,17 @@
       <c r="F73" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73" t="s">
+        <v>221</v>
+      </c>
+      <c r="I73" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -3040,8 +3710,17 @@
       <c r="F74" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74" t="s">
+        <v>221</v>
+      </c>
+      <c r="I74" t="s">
+        <v>221</v>
+      </c>
+      <c r="J74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -3060,8 +3739,17 @@
       <c r="F75" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75" t="s">
+        <v>221</v>
+      </c>
+      <c r="I75" t="s">
+        <v>221</v>
+      </c>
+      <c r="J75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>202</v>
       </c>
@@ -3080,8 +3768,17 @@
       <c r="F76" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76" t="s">
+        <v>221</v>
+      </c>
+      <c r="I76" t="s">
+        <v>221</v>
+      </c>
+      <c r="J76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -3097,8 +3794,17 @@
       <c r="F77" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77" t="s">
+        <v>221</v>
+      </c>
+      <c r="I77" t="s">
+        <v>221</v>
+      </c>
+      <c r="J77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -3114,8 +3820,17 @@
       <c r="F78" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78" t="s">
+        <v>221</v>
+      </c>
+      <c r="I78" t="s">
+        <v>221</v>
+      </c>
+      <c r="J78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -3134,8 +3849,17 @@
       <c r="F79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79" t="s">
+        <v>221</v>
+      </c>
+      <c r="I79" t="s">
+        <v>221</v>
+      </c>
+      <c r="J79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -3154,8 +3878,17 @@
       <c r="F80" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80" t="s">
+        <v>221</v>
+      </c>
+      <c r="I80" t="s">
+        <v>221</v>
+      </c>
+      <c r="J80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -3171,8 +3904,17 @@
       <c r="F81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81" t="s">
+        <v>221</v>
+      </c>
+      <c r="I81" t="s">
+        <v>221</v>
+      </c>
+      <c r="J81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -3188,8 +3930,17 @@
       <c r="F82" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82" t="s">
+        <v>221</v>
+      </c>
+      <c r="I82" t="s">
+        <v>221</v>
+      </c>
+      <c r="J82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -3205,8 +3956,17 @@
       <c r="F83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="H83" t="s">
+        <v>221</v>
+      </c>
+      <c r="I83" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -3225,8 +3985,17 @@
       <c r="F84" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84" t="s">
+        <v>221</v>
+      </c>
+      <c r="I84" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -3242,8 +4011,17 @@
       <c r="F85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="H85" t="s">
+        <v>221</v>
+      </c>
+      <c r="I85" t="s">
+        <v>221</v>
+      </c>
+      <c r="J85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>202</v>
       </c>
@@ -3262,8 +4040,17 @@
       <c r="F86" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="H86" t="s">
+        <v>221</v>
+      </c>
+      <c r="I86" t="s">
+        <v>221</v>
+      </c>
+      <c r="J86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -3282,8 +4069,17 @@
       <c r="F87" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="H87" t="s">
+        <v>221</v>
+      </c>
+      <c r="I87" t="s">
+        <v>221</v>
+      </c>
+      <c r="J87" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -3301,6 +4097,15 @@
       </c>
       <c r="F88" t="s">
         <v>215</v>
+      </c>
+      <c r="H88" t="s">
+        <v>221</v>
+      </c>
+      <c r="I88" t="s">
+        <v>221</v>
+      </c>
+      <c r="J88" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/resource/osaka_kita/shop_list.xlsx
+++ b/resource/osaka_kita/shop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka_kita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BC6178-18EE-364B-8FEE-98261683399A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C86315C-AAEA-7145-9734-A88C78694335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="2640" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="2620" windowWidth="33740" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="223">
   <si>
     <t>ページ</t>
   </si>
@@ -711,6 +711,10 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お知らせ画像</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1666,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1679,7 +1683,7 @@
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1710,8 +1714,11 @@
       <c r="J1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1739,8 +1746,11 @@
       <c r="J2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1768,8 +1778,11 @@
       <c r="J3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1797,8 +1810,11 @@
       <c r="J4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1826,8 +1842,11 @@
       <c r="J5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1855,8 +1874,11 @@
       <c r="J6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1884,8 +1906,11 @@
       <c r="J7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1913,8 +1938,11 @@
       <c r="J8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="21">
+      <c r="K8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1942,8 +1970,11 @@
       <c r="J9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1971,8 +2002,11 @@
       <c r="J10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2034,11 @@
       <c r="J11" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2029,8 +2066,11 @@
       <c r="J12" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2058,8 +2098,11 @@
       <c r="J13" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2084,8 +2127,11 @@
       <c r="J14" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2110,8 +2156,11 @@
       <c r="J15" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2139,8 +2188,11 @@
       <c r="J16" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2168,8 +2220,11 @@
       <c r="J17" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2197,8 +2252,11 @@
       <c r="J18" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2226,8 +2284,11 @@
       <c r="J19" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="J20" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2284,8 +2348,11 @@
       <c r="J21" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2313,8 +2380,11 @@
       <c r="J22" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2339,8 +2409,11 @@
       <c r="J23" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2365,8 +2438,11 @@
       <c r="J24" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2391,8 +2467,11 @@
       <c r="J25" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2417,8 +2496,11 @@
       <c r="J26" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2443,8 +2525,11 @@
       <c r="J27" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2469,8 +2554,11 @@
       <c r="J28" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2495,8 +2583,11 @@
       <c r="J29" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2521,8 +2612,11 @@
       <c r="J30" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2550,8 +2644,11 @@
       <c r="J31" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2576,8 +2673,11 @@
       <c r="J32" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2602,8 +2702,11 @@
       <c r="J33" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2631,8 +2734,11 @@
       <c r="J34" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2657,8 +2763,11 @@
       <c r="J35" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2683,8 +2792,11 @@
       <c r="J36" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2709,8 +2821,11 @@
       <c r="J37" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2738,8 +2853,11 @@
       <c r="J38" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2764,8 +2882,11 @@
       <c r="J39" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2790,8 +2911,11 @@
       <c r="J40" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2816,8 +2940,11 @@
       <c r="J41" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2842,8 +2969,11 @@
       <c r="J42" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2868,8 +2998,11 @@
       <c r="J43" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -2894,8 +3027,11 @@
       <c r="J44" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2920,8 +3056,11 @@
       <c r="J45" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2949,8 +3088,11 @@
       <c r="J46" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2975,8 +3117,11 @@
       <c r="J47" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3004,8 +3149,11 @@
       <c r="J48" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="21">
+      <c r="K48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="21">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3033,8 +3181,11 @@
       <c r="J49" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -3059,8 +3210,11 @@
       <c r="J50" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3088,8 +3242,11 @@
       <c r="J51" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3274,11 @@
       <c r="J52" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3143,8 +3303,11 @@
       <c r="J53" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -3169,8 +3332,11 @@
       <c r="J54" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3198,8 +3364,11 @@
       <c r="J55" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -3227,8 +3396,11 @@
       <c r="J56" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -3253,8 +3425,11 @@
       <c r="J57" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -3279,8 +3454,11 @@
       <c r="J58" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -3308,8 +3486,11 @@
       <c r="J59" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -3337,8 +3518,11 @@
       <c r="J60" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -3363,8 +3547,11 @@
       <c r="J61" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -3389,8 +3576,11 @@
       <c r="J62" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -3415,8 +3605,11 @@
       <c r="J63" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -3441,8 +3634,11 @@
       <c r="J64" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -3467,8 +3663,11 @@
       <c r="J65" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -3493,8 +3692,11 @@
       <c r="J66" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -3519,8 +3721,11 @@
       <c r="J67" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -3548,8 +3753,11 @@
       <c r="J68" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -3574,8 +3782,11 @@
       <c r="J69" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -3603,8 +3814,11 @@
       <c r="J70" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -3632,8 +3846,11 @@
       <c r="J71" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>189</v>
       </c>
@@ -3661,8 +3878,11 @@
       <c r="J72" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -3690,8 +3910,11 @@
       <c r="J73" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -3719,8 +3942,11 @@
       <c r="J74" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -3748,8 +3974,11 @@
       <c r="J75" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>202</v>
       </c>
@@ -3777,8 +4006,11 @@
       <c r="J76" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -3803,8 +4035,11 @@
       <c r="J77" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -3829,8 +4064,11 @@
       <c r="J78" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -3858,8 +4096,11 @@
       <c r="J79" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -3887,8 +4128,11 @@
       <c r="J80" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -3913,8 +4157,11 @@
       <c r="J81" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -3939,8 +4186,11 @@
       <c r="J82" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -3965,8 +4215,11 @@
       <c r="J83" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -3994,8 +4247,11 @@
       <c r="J84" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -4020,8 +4276,11 @@
       <c r="J85" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>202</v>
       </c>
@@ -4049,8 +4308,11 @@
       <c r="J86" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -4078,8 +4340,11 @@
       <c r="J87" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -4105,6 +4370,9 @@
         <v>221</v>
       </c>
       <c r="J88" t="s">
+        <v>221</v>
+      </c>
+      <c r="K88" t="s">
         <v>221</v>
       </c>
     </row>
